--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lama2-Itga7.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H2">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I2">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J2">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N2">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O2">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P2">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q2">
-        <v>7.239977797838445</v>
+        <v>2.150348061642666</v>
       </c>
       <c r="R2">
-        <v>65.159800180546</v>
+        <v>19.353132554784</v>
       </c>
       <c r="S2">
-        <v>0.001078942146396488</v>
+        <v>0.0003899963524087938</v>
       </c>
       <c r="T2">
-        <v>0.00177541311777737</v>
+        <v>0.0006196668625332625</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H3">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I3">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J3">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.384767</v>
       </c>
       <c r="O3">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P3">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q3">
-        <v>7.473312721602889</v>
+        <v>4.008186848673778</v>
       </c>
       <c r="R3">
-        <v>67.259814494426</v>
+        <v>36.073681638064</v>
       </c>
       <c r="S3">
-        <v>0.001113715026991624</v>
+        <v>0.0007269419675071338</v>
       </c>
       <c r="T3">
-        <v>0.001832632338064297</v>
+        <v>0.001155041182992216</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H4">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I4">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J4">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N4">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O4">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P4">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q4">
-        <v>0.9401934899686668</v>
+        <v>0.4763471097279999</v>
       </c>
       <c r="R4">
-        <v>8.461741409718002</v>
+        <v>4.287123987552</v>
       </c>
       <c r="S4">
-        <v>0.000140112913384577</v>
+        <v>8.639235600420781E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002305575931237828</v>
+        <v>0.0001372691817790884</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H5">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I5">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J5">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N5">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O5">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P5">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q5">
-        <v>112.7190550299294</v>
+        <v>60.71175367803465</v>
       </c>
       <c r="R5">
-        <v>676.3143301795761</v>
+        <v>364.270522068208</v>
       </c>
       <c r="S5">
-        <v>0.01679802653677829</v>
+        <v>0.01101094418393243</v>
       </c>
       <c r="T5">
-        <v>0.01842757851028716</v>
+        <v>0.01166355735353869</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.969292666666667</v>
+        <v>1.056197333333333</v>
       </c>
       <c r="H6">
-        <v>5.907878</v>
+        <v>3.168592</v>
       </c>
       <c r="I6">
-        <v>0.01927739905292307</v>
+        <v>0.01247237710445079</v>
       </c>
       <c r="J6">
-        <v>0.02250741773403226</v>
+        <v>0.01398563433468744</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N6">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O6">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P6">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q6">
-        <v>0.9837398022757778</v>
+        <v>1.423115005946666</v>
       </c>
       <c r="R6">
-        <v>8.853658220482</v>
+        <v>12.80803505352</v>
       </c>
       <c r="S6">
-        <v>0.0001466024293720865</v>
+        <v>0.000258102244598227</v>
       </c>
       <c r="T6">
-        <v>0.0002412361747796488</v>
+        <v>0.0004100997538441842</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>168.19535</v>
       </c>
       <c r="I7">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J7">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N7">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O7">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P7">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q7">
-        <v>206.1197945691611</v>
+        <v>114.1448772356333</v>
       </c>
       <c r="R7">
-        <v>1855.07815112245</v>
+        <v>1027.3038951207</v>
       </c>
       <c r="S7">
-        <v>0.03071712922015462</v>
+        <v>0.0207018047738934</v>
       </c>
       <c r="T7">
-        <v>0.05054542946539452</v>
+        <v>0.03289318562540838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>168.19535</v>
       </c>
       <c r="I8">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J8">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.384767</v>
       </c>
       <c r="O8">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P8">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q8">
         <v>212.7627633592723</v>
@@ -948,10 +948,10 @@
         <v>1914.86487023345</v>
       </c>
       <c r="S8">
-        <v>0.0317071017318089</v>
+        <v>0.03858756780757858</v>
       </c>
       <c r="T8">
-        <v>0.05217444190994513</v>
+        <v>0.0613119505565216</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>168.19535</v>
       </c>
       <c r="I9">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J9">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N9">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O9">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P9">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q9">
-        <v>26.76700045481667</v>
+        <v>25.2854797469</v>
       </c>
       <c r="R9">
-        <v>240.9030040933501</v>
+        <v>227.5693177221</v>
       </c>
       <c r="S9">
-        <v>0.003988968713680041</v>
+        <v>0.004585883116365987</v>
       </c>
       <c r="T9">
-        <v>0.006563899097207534</v>
+        <v>0.007286529181903948</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>168.19535</v>
       </c>
       <c r="I10">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J10">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N10">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O10">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P10">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q10">
-        <v>3209.074546297034</v>
+        <v>3222.704172386609</v>
       </c>
       <c r="R10">
-        <v>19254.4472777822</v>
+        <v>19336.22503431965</v>
       </c>
       <c r="S10">
-        <v>0.4782343089452276</v>
+        <v>0.5844834585352041</v>
       </c>
       <c r="T10">
-        <v>0.5246271194480029</v>
+        <v>0.6191255015866716</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>168.19535</v>
       </c>
       <c r="I11">
-        <v>0.5488212317173889</v>
+        <v>0.6620593097549599</v>
       </c>
       <c r="J11">
-        <v>0.6407788047369568</v>
+        <v>0.7423861014276285</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N11">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O11">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P11">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q11">
-        <v>28.00674969129445</v>
+        <v>75.54185787108334</v>
       </c>
       <c r="R11">
-        <v>252.06074722165</v>
+        <v>679.8767208397501</v>
       </c>
       <c r="S11">
-        <v>0.004173723106517834</v>
+        <v>0.01370059552191775</v>
       </c>
       <c r="T11">
-        <v>0.006867914816406875</v>
+        <v>0.02176893447712309</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H12">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I12">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J12">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N12">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O12">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P12">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q12">
-        <v>0.3812476041118888</v>
+        <v>0.09283383988733332</v>
       </c>
       <c r="R12">
-        <v>3.431228437006999</v>
+        <v>0.835504558986</v>
       </c>
       <c r="S12">
-        <v>5.681565880102701E-05</v>
+        <v>1.683674358675908E-05</v>
       </c>
       <c r="T12">
-        <v>9.34908940830629E-05</v>
+        <v>2.675197347165952E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H13">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I13">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J13">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.384767</v>
       </c>
       <c r="O13">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P13">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q13">
-        <v>0.3935347109407777</v>
+        <v>0.1730396035812222</v>
       </c>
       <c r="R13">
-        <v>3.541812398467</v>
+        <v>1.557356432231</v>
       </c>
       <c r="S13">
-        <v>5.864675245699407E-05</v>
+        <v>3.138320508326833E-05</v>
       </c>
       <c r="T13">
-        <v>9.65039821411581E-05</v>
+        <v>4.986490799227362E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H14">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I14">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J14">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N14">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O14">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P14">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q14">
-        <v>0.04950933904233333</v>
+        <v>0.020564638862</v>
       </c>
       <c r="R14">
-        <v>0.445584051381</v>
+        <v>0.185081749758</v>
       </c>
       <c r="S14">
-        <v>7.378159716035991E-06</v>
+        <v>3.729691154583361E-06</v>
       </c>
       <c r="T14">
-        <v>1.214085629026225E-05</v>
+        <v>5.926122133460804E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H15">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I15">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J15">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N15">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O15">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P15">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q15">
-        <v>5.935635559648667</v>
+        <v>2.621019973817833</v>
       </c>
       <c r="R15">
-        <v>35.613813357892</v>
+        <v>15.726119842907</v>
       </c>
       <c r="S15">
-        <v>0.0008845617417316781</v>
+        <v>0.0004753594302304206</v>
       </c>
       <c r="T15">
-        <v>0.0009703717819035609</v>
+        <v>0.0005035337465545009</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1037003333333333</v>
+        <v>0.04559766666666667</v>
       </c>
       <c r="H16">
-        <v>0.311101</v>
+        <v>0.136793</v>
       </c>
       <c r="I16">
-        <v>0.001015122201704812</v>
+        <v>0.0005384517417354892</v>
       </c>
       <c r="J16">
-        <v>0.001185210690619401</v>
+        <v>0.0006037813885615125</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N16">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O16">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P16">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q16">
-        <v>0.05180242994655555</v>
+        <v>0.06143806807833333</v>
       </c>
       <c r="R16">
-        <v>0.4662218695189999</v>
+        <v>0.552942612705</v>
       </c>
       <c r="S16">
-        <v>7.719888999076397E-06</v>
+        <v>1.114267168045784E-05</v>
       </c>
       <c r="T16">
-        <v>1.27031762013575E-05</v>
+        <v>1.770463840961774E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H17">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I17">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J17">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N17">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O17">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P17">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q17">
-        <v>161.6923280944723</v>
+        <v>55.96433810505799</v>
       </c>
       <c r="R17">
-        <v>970.1539685668341</v>
+        <v>335.786028630348</v>
       </c>
       <c r="S17">
-        <v>0.02409629869060934</v>
+        <v>0.01014993252267827</v>
       </c>
       <c r="T17">
-        <v>0.02643384536608165</v>
+        <v>0.01075151396058809</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H18">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I18">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J18">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.384767</v>
       </c>
       <c r="O18">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P18">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q18">
-        <v>166.9034583082257</v>
+        <v>104.3159142413763</v>
       </c>
       <c r="R18">
-        <v>1001.420749849354</v>
+        <v>625.895485448258</v>
       </c>
       <c r="S18">
-        <v>0.02487289057734928</v>
+        <v>0.01891918186549177</v>
       </c>
       <c r="T18">
-        <v>0.02728577329535475</v>
+        <v>0.02004051233791511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H19">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I19">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J19">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N19">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O19">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P19">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q19">
-        <v>20.99758845913701</v>
+        <v>12.397272413574</v>
       </c>
       <c r="R19">
-        <v>125.985530754822</v>
+        <v>74.38363448144399</v>
       </c>
       <c r="S19">
-        <v>0.003129178540853441</v>
+        <v>0.002248422526267034</v>
       </c>
       <c r="T19">
-        <v>0.00343273557212405</v>
+        <v>0.002381685407902785</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H20">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I20">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J20">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N20">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O20">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P20">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q20">
-        <v>2517.384298310927</v>
+        <v>1580.066581032006</v>
       </c>
       <c r="R20">
-        <v>10069.53719324371</v>
+        <v>6320.266324128025</v>
       </c>
       <c r="S20">
-        <v>0.3751547441119677</v>
+        <v>0.2865676557937236</v>
       </c>
       <c r="T20">
-        <v>0.2743653045788422</v>
+        <v>0.2023682518765635</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>43.98073100000001</v>
+        <v>27.488287</v>
       </c>
       <c r="H21">
-        <v>87.96146200000001</v>
+        <v>54.976574</v>
       </c>
       <c r="I21">
-        <v>0.4305272225287646</v>
+        <v>0.3246024872429512</v>
       </c>
       <c r="J21">
-        <v>0.3351093860994091</v>
+        <v>0.2426573888143015</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N21">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O21">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P21">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q21">
-        <v>21.97011970349634</v>
+        <v>37.037580462365</v>
       </c>
       <c r="R21">
-        <v>131.820718220978</v>
+        <v>222.22548277419</v>
       </c>
       <c r="S21">
-        <v>0.003274110607984915</v>
+        <v>0.006717294534790467</v>
       </c>
       <c r="T21">
-        <v>0.00359172728700651</v>
+        <v>0.007115425231331953</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H22">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I22">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J22">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.676435666666666</v>
+        <v>2.035934</v>
       </c>
       <c r="N22">
-        <v>11.029307</v>
+        <v>6.107802</v>
       </c>
       <c r="O22">
-        <v>0.05596928005870617</v>
+        <v>0.03126880699186227</v>
       </c>
       <c r="P22">
-        <v>0.07888124434163157</v>
+        <v>0.04430738339814538</v>
       </c>
       <c r="Q22">
-        <v>0.1348381799892222</v>
+        <v>0.05644219828199999</v>
       </c>
       <c r="R22">
-        <v>1.213543619903</v>
+        <v>0.507979784538</v>
       </c>
       <c r="S22">
-        <v>2.009434274469771E-05</v>
+        <v>1.023659929504555E-05</v>
       </c>
       <c r="T22">
-        <v>3.3065498294976E-05</v>
+        <v>1.626497614398727E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H23">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I23">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J23">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.384767</v>
       </c>
       <c r="O23">
-        <v>0.05777309604548284</v>
+        <v>0.0582841555718936</v>
       </c>
       <c r="P23">
-        <v>0.08142348268114614</v>
+        <v>0.08258768643246023</v>
       </c>
       <c r="Q23">
-        <v>0.1391838364714444</v>
+        <v>0.105206631847</v>
       </c>
       <c r="R23">
-        <v>1.252654528243</v>
+        <v>0.9468596866230001</v>
       </c>
       <c r="S23">
-        <v>2.074195687603255E-05</v>
+        <v>1.908072623285068E-05</v>
       </c>
       <c r="T23">
-        <v>3.41311556408031E-05</v>
+        <v>3.031744703902542E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H24">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I24">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J24">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.477427</v>
+        <v>0.451002</v>
       </c>
       <c r="N24">
-        <v>1.432281</v>
+        <v>1.353006</v>
       </c>
       <c r="O24">
-        <v>0.007268247806663079</v>
+        <v>0.006926695310822388</v>
       </c>
       <c r="P24">
-        <v>0.01024362704990227</v>
+        <v>0.009815012926416261</v>
       </c>
       <c r="Q24">
-        <v>0.01751027179433333</v>
+        <v>0.012503128446</v>
       </c>
       <c r="R24">
-        <v>0.157592446149</v>
+        <v>0.112528156014</v>
       </c>
       <c r="S24">
-        <v>2.60947902898327E-06</v>
+        <v>2.267621030575713E-06</v>
       </c>
       <c r="T24">
-        <v>4.293931156638086E-06</v>
+        <v>3.603032696978659E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H25">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I25">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J25">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>57.23834600000001</v>
+        <v>57.4814495</v>
       </c>
       <c r="N25">
-        <v>114.476692</v>
+        <v>114.962899</v>
       </c>
       <c r="O25">
-        <v>0.8713844897157522</v>
+        <v>0.8828264325012393</v>
       </c>
       <c r="P25">
-        <v>0.8187335716626351</v>
+        <v>0.8339669888701803</v>
       </c>
       <c r="Q25">
-        <v>2.099292657344667</v>
+        <v>1.5935582244885</v>
       </c>
       <c r="R25">
-        <v>12.595755944068</v>
+        <v>9.561349346930999</v>
       </c>
       <c r="S25">
-        <v>0.0003128483800469777</v>
+        <v>0.0002890145581486907</v>
       </c>
       <c r="T25">
-        <v>0.0003431973435992392</v>
+        <v>0.0003061443068518951</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.03667633333333333</v>
+        <v>0.027723</v>
       </c>
       <c r="H26">
-        <v>0.110029</v>
+        <v>0.08316900000000001</v>
       </c>
       <c r="I26">
-        <v>0.0003590244992185133</v>
+        <v>0.0003273741559027063</v>
       </c>
       <c r="J26">
-        <v>0.0004191807389823952</v>
+        <v>0.0003670940348210247</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4995396666666667</v>
+        <v>1.347395</v>
       </c>
       <c r="N26">
-        <v>1.498619</v>
+        <v>4.042185</v>
       </c>
       <c r="O26">
-        <v>0.007604886373395734</v>
+        <v>0.02069390962418245</v>
       </c>
       <c r="P26">
-        <v>0.01071807426468513</v>
+        <v>0.02932292837279799</v>
       </c>
       <c r="Q26">
-        <v>0.01832128332788889</v>
+        <v>0.037353831585</v>
       </c>
       <c r="R26">
-        <v>0.164891549951</v>
+        <v>0.336184484265</v>
       </c>
       <c r="S26">
-        <v>2.7303405218221E-06</v>
+        <v>6.774651195543618E-06</v>
       </c>
       <c r="T26">
-        <v>4.492810290738906E-06</v>
+        <v>1.076427208913832E-05</v>
       </c>
     </row>
   </sheetData>
